--- a/test_workbook.xlsx
+++ b/test_workbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,48 +422,111 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>col1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>col2</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>type1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>type2</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>name1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>name2</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>note1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>note2</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>data1_2</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>data2_2</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>data3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>data3_2</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>data4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>data4_2</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>data5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>data5_2</t>
+        </is>
       </c>
     </row>
   </sheetData>
